--- a/src/main/webapp/resources/sql/sys/sys101100m/sys_company.xlsx
+++ b/src/main/webapp/resources/sql/sys/sys101100m/sys_company.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="110" windowWidth="17150" windowHeight="8540"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="17148" windowHeight="8544"/>
   </bookViews>
   <sheets>
     <sheet name="Select sys_company" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>9층</t>
-  </si>
-  <si>
-    <t>123412</t>
   </si>
   <si>
     <t>admin@built1.com</t>
@@ -126,14 +123,92 @@
  order by sc.company_code_x000D_
    for update</t>
   </si>
+  <si>
+    <t>2022-02-22 오후 10:02:36</t>
+  </si>
+  <si>
+    <t>BT2</t>
+  </si>
+  <si>
+    <t>빌트원2</t>
+  </si>
+  <si>
+    <t>Built2</t>
+  </si>
+  <si>
+    <t>hr@built2.com</t>
+  </si>
+  <si>
+    <t>03-472-7320</t>
+  </si>
+  <si>
+    <t>BT3</t>
+  </si>
+  <si>
+    <t>빌트원3</t>
+  </si>
+  <si>
+    <t>Built3</t>
+  </si>
+  <si>
+    <t>manager@built3.com</t>
+  </si>
+  <si>
+    <t>04-3472-7300</t>
+  </si>
+  <si>
+    <t>BT4</t>
+  </si>
+  <si>
+    <t>빌트원4</t>
+  </si>
+  <si>
+    <t>Built4</t>
+  </si>
+  <si>
+    <t>ceo@built4.com</t>
+  </si>
+  <si>
+    <t>05-3472-2300</t>
+  </si>
+  <si>
+    <t>BT5</t>
+  </si>
+  <si>
+    <t>빌트원5</t>
+  </si>
+  <si>
+    <t>Built5</t>
+  </si>
+  <si>
+    <t>super@built5.com</t>
+  </si>
+  <si>
+    <t>01-3472-7360</t>
+  </si>
+  <si>
+    <t>BT6</t>
+  </si>
+  <si>
+    <t>빌트원6</t>
+  </si>
+  <si>
+    <t>Built6</t>
+  </si>
+  <si>
+    <t>hogildong@built6.com</t>
+  </si>
+  <si>
+    <t>02-3472-7400</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="184" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="185" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -178,8 +253,8 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -482,34 +557,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -565,7 +640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -593,29 +668,294 @@
       <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>123412</v>
+      </c>
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
       <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="1">
-        <v>44614.91847222222</v>
+        <v>27</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="1">
-        <v>44614.91847222222</v>
+        <v>27</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44208</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3">
+        <v>123412</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2">
+        <v>33694</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4">
+        <v>123412</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2">
+        <v>26685</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5">
+        <v>123412</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2">
+        <v>36925</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6">
+        <v>123412</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2">
+        <v>40189</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7">
+        <v>123412</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -631,14 +971,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
